--- a/Python/Results Summary/Results_EI_NegativeNEin2040_-724_TrueREFERENCElTrans.xlsx
+++ b/Python/Results Summary/Results_EI_NegativeNEin2040_-724_TrueREFERENCElTrans.xlsx
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>28420.74678023744</v>
+        <v>34394.39173755571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>167730.8042035758</v>
+        <v>167132.1481801597</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>196151.5509838132</v>
+        <v>201526.5399177154</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>34887.28162163078</v>
+        <v>42296.12073581317</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>347074.7015265414</v>
+        <v>372395.5253144336</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>381961.9831481722</v>
+        <v>414691.6460502468</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>63308.02840186823</v>
+        <v>76690.51247336889</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>514805.5057301172</v>
+        <v>539527.6734945934</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>578113.5341319854</v>
+        <v>616218.1859679623</v>
       </c>
     </row>
   </sheetData>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3515.837905247607</v>
+        <v>17518.3608842591</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3515.837905247607</v>
+        <v>17518.3608842591</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>17518.3608842591</v>
       </c>
       <c r="D4">
-        <v>2856.952567193634</v>
+        <v>4976.495695232313</v>
       </c>
       <c r="E4">
-        <v>2856.952567193634</v>
+        <v>22494.85657949141</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -640,13 +640,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>338957.0691181878</v>
+        <v>338936.1839617043</v>
       </c>
       <c r="D6">
-        <v>589567.977935638</v>
+        <v>784996.4895172919</v>
       </c>
       <c r="E6">
-        <v>928525.0470538258</v>
+        <v>1123932.673478996</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>81018.14603526104</v>
       </c>
       <c r="D7">
-        <v>562157.9609561136</v>
+        <v>332832.4682273867</v>
       </c>
       <c r="E7">
-        <v>562157.9609561136</v>
+        <v>413850.6142626478</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3736.830607321896</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>172294.7260419836</v>
+        <v>81205.50571554879</v>
       </c>
       <c r="E8">
-        <v>176031.5566493055</v>
+        <v>81205.50571554879</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>100.1810369470638</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>60967.51017559991</v>
+        <v>193386.8629494251</v>
       </c>
       <c r="E9">
-        <v>61067.69121254698</v>
+        <v>193386.8629494251</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-153812.3107602784</v>
+        <v>-160531.7965540834</v>
       </c>
       <c r="E10">
-        <v>-153812.3107602784</v>
+        <v>-160531.7965540834</v>
       </c>
     </row>
   </sheetData>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>14685.06695337925</v>
+        <v>12304.05661743552</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14685.06695337925</v>
+        <v>12304.05661743552</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -769,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>37522.51896222839</v>
+        <v>47864.93422447683</v>
       </c>
       <c r="D3">
-        <v>15367.68642085372</v>
+        <v>5753.570363875297</v>
       </c>
       <c r="E3">
-        <v>52890.20538308212</v>
+        <v>53618.50458835213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4546.990257544912</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4546.990257544912</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>26078.14745793047</v>
+        <v>34229.98695592326</v>
       </c>
       <c r="D5">
-        <v>25737.65609464372</v>
+        <v>30366.66019847668</v>
       </c>
       <c r="E5">
-        <v>51815.80355257419</v>
+        <v>64596.64715439994</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>29769.22177377029</v>
+        <v>30116.34655702591</v>
       </c>
       <c r="E6">
-        <v>29769.22177377029</v>
+        <v>30116.34655702591</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5817.143267564166</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5817.143267564166</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.7630200000000005</v>
+        <v>1.067040000000001</v>
       </c>
       <c r="D8">
-        <v>0.4197600000000001</v>
+        <v>0.8865000000000005</v>
       </c>
       <c r="E8">
-        <v>1.182780000000001</v>
+        <v>1.953540000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.473171906727417</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>9.473171906727417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>398.9637826694915</v>
+        <v>199.3704835388475</v>
       </c>
       <c r="D11">
-        <v>41.58196378563154</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>440.545746455123</v>
+        <v>199.3704835388475</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -922,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1398.327474097014</v>
+        <v>1362.718770141019</v>
       </c>
       <c r="D12">
-        <v>49.90342310000001</v>
+        <v>0.001155</v>
       </c>
       <c r="E12">
-        <v>1448.230897197014</v>
+        <v>1362.719925141019</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -939,13 +939,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>709.396354067953</v>
+        <v>915.9919379623534</v>
       </c>
       <c r="D13">
-        <v>58.34444854229034</v>
+        <v>27.13980000000001</v>
       </c>
       <c r="E13">
-        <v>767.7408026102433</v>
+        <v>943.1317379623534</v>
       </c>
     </row>
   </sheetData>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1093.587317075648</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1093.587317075648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6837.208372001686</v>
       </c>
       <c r="D4">
-        <v>704.3986280359308</v>
+        <v>1687.828869785657</v>
       </c>
       <c r="E4">
-        <v>704.3986280359308</v>
+        <v>8525.037241787344</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1051,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>34153.87641837769</v>
+        <v>36615.15997303354</v>
       </c>
       <c r="D6">
-        <v>57758.96738052135</v>
+        <v>99676.86264860278</v>
       </c>
       <c r="E6">
-        <v>91912.84379889905</v>
+        <v>136292.0226216363</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5887.67168774677</v>
       </c>
       <c r="D7">
-        <v>31848.55838700309</v>
+        <v>24144.39080071008</v>
       </c>
       <c r="E7">
-        <v>31848.55838700309</v>
+        <v>30032.06248845685</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1085,13 +1085,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>212.5081032225008</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>7983.513754305144</v>
+        <v>5577.126016442671</v>
       </c>
       <c r="E8">
-        <v>8196.021857527645</v>
+        <v>5577.126016442671</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>17.28258534195022</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>11969.15285116647</v>
+        <v>43637.21840607384</v>
       </c>
       <c r="E9">
-        <v>11986.43543650842</v>
+        <v>43637.21840607384</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-39709.16782767925</v>
+        <v>-59591.61325388751</v>
       </c>
       <c r="E10">
-        <v>-39709.16782767925</v>
+        <v>-59591.61325388751</v>
       </c>
     </row>
   </sheetData>
